--- a/rottedata.xlsx
+++ b/rottedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfjor\HobbyProjects\rotte-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2FF7AF6-C92C-4EE5-ADFD-2DA230CE2C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976DBCE0-C9DA-4F8E-9868-69BECCDB05ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{D51C1BAC-8A3A-42C1-93CD-B6A8D8AD35F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>Maj</t>
   </si>
@@ -155,30 +155,6 @@
     <t>Christoffer Vive Høgedal</t>
   </si>
   <si>
-    <t>flest unikke roomies</t>
-  </si>
-  <si>
-    <t>færrest unikke roomies</t>
-  </si>
-  <si>
-    <t>længste sti mellem to roomies</t>
-  </si>
-  <si>
-    <t>gennemsnits stilængde mellem to roomies</t>
-  </si>
-  <si>
-    <t>længste periode</t>
-  </si>
-  <si>
-    <t>median beboelsestid</t>
-  </si>
-  <si>
-    <t>gennemsnit beboelsestid</t>
-  </si>
-  <si>
-    <t>lav et boxplot</t>
-  </si>
-  <si>
     <t>Sarah Agergaard Christensen</t>
   </si>
   <si>
@@ -212,7 +188,28 @@
     <t>José Mato Sanz</t>
   </si>
   <si>
-    <t>Rosanna Børsting</t>
+    <t>Kristina Wonsyld Varming</t>
+  </si>
+  <si>
+    <t>Freja Holmgaard Dinitzen</t>
+  </si>
+  <si>
+    <t>Johan Skjold Knudsen</t>
+  </si>
+  <si>
+    <t>Kristian Laurberg Jensen</t>
+  </si>
+  <si>
+    <t>Asger Jensen</t>
+  </si>
+  <si>
+    <t>Jeppe Munk Tværmose</t>
+  </si>
+  <si>
+    <t>Jonas Øtt</t>
+  </si>
+  <si>
+    <t>VACANT</t>
   </si>
 </sst>
 </file>
@@ -273,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -354,15 +351,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -404,137 +392,116 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +519,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B997E4-BD6E-4952-B1EE-D299B9DF631D}">
-  <dimension ref="A1:CL27"/>
+  <dimension ref="A1:CL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="BF18" sqref="BF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -889,117 +852,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33">
+      <c r="B1" s="25">
         <v>2018</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14">
         <v>2019</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14">
         <v>2020</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14">
         <v>2021</v>
       </c>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29">
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14">
         <v>2022</v>
       </c>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29">
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="14">
         <v>2023</v>
       </c>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29">
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="14"/>
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14">
         <v>2024</v>
       </c>
-      <c r="BP1" s="29"/>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="29"/>
-      <c r="BS1" s="29"/>
-      <c r="BT1" s="29"/>
-      <c r="BU1" s="29"/>
-      <c r="BV1" s="29"/>
-      <c r="BW1" s="29"/>
-      <c r="BX1" s="29"/>
-      <c r="BY1" s="29"/>
-      <c r="BZ1" s="29"/>
-      <c r="CA1" s="29">
+      <c r="BP1" s="14"/>
+      <c r="BQ1" s="14"/>
+      <c r="BR1" s="14"/>
+      <c r="BS1" s="14"/>
+      <c r="BT1" s="14"/>
+      <c r="BU1" s="14"/>
+      <c r="BV1" s="14"/>
+      <c r="BW1" s="14"/>
+      <c r="BX1" s="14"/>
+      <c r="BY1" s="14"/>
+      <c r="BZ1" s="14"/>
+      <c r="CA1" s="14">
         <v>2025</v>
       </c>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
-      <c r="CJ1" s="29"/>
-      <c r="CK1" s="29"/>
-      <c r="CL1" s="29"/>
+      <c r="CB1" s="14"/>
+      <c r="CC1" s="14"/>
+      <c r="CD1" s="14"/>
+      <c r="CE1" s="14"/>
+      <c r="CF1" s="14"/>
+      <c r="CG1" s="14"/>
+      <c r="CH1" s="14"/>
+      <c r="CI1" s="14"/>
+      <c r="CJ1" s="14"/>
+      <c r="CK1" s="14"/>
+      <c r="CL1" s="14"/>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1272,937 +1235,1063 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="34" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="30" t="s">
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="13"/>
+      <c r="BJ3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="31"/>
-      <c r="BW3" s="31"/>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="31"/>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="31"/>
-      <c r="CF3" s="31"/>
-      <c r="CG3" s="31"/>
-      <c r="CH3" s="31"/>
-      <c r="CI3" s="31"/>
-      <c r="CJ3" s="32"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="23"/>
+      <c r="BN3" s="23"/>
+      <c r="BO3" s="23"/>
+      <c r="BP3" s="23"/>
+      <c r="BQ3" s="23"/>
+      <c r="BR3" s="23"/>
+      <c r="BS3" s="23"/>
+      <c r="BT3" s="23"/>
+      <c r="BU3" s="23"/>
+      <c r="BV3" s="23"/>
+      <c r="BW3" s="23"/>
+      <c r="BX3" s="23"/>
+      <c r="BY3" s="23"/>
+      <c r="BZ3" s="23"/>
+      <c r="CA3" s="23"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="23"/>
+      <c r="CD3" s="23"/>
+      <c r="CE3" s="23"/>
+      <c r="CF3" s="23"/>
+      <c r="CG3" s="23"/>
+      <c r="CH3" s="23"/>
+      <c r="CI3" s="23"/>
+      <c r="CJ3" s="24"/>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="11" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
-      <c r="BH4" s="12"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="12"/>
-      <c r="BL4" s="12"/>
-      <c r="BM4" s="12"/>
-      <c r="BN4" s="12"/>
-      <c r="BO4" s="12"/>
-      <c r="BP4" s="12"/>
-      <c r="BQ4" s="12"/>
-      <c r="BR4" s="12"/>
-      <c r="BS4" s="12"/>
-      <c r="BT4" s="12"/>
-      <c r="BU4" s="13"/>
-      <c r="BV4" s="16" t="s">
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BW4" s="17"/>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="17"/>
-      <c r="BZ4" s="17"/>
-      <c r="CA4" s="17"/>
-      <c r="CB4" s="17"/>
-      <c r="CC4" s="17"/>
-      <c r="CD4" s="17"/>
-      <c r="CE4" s="17"/>
-      <c r="CF4" s="17"/>
-      <c r="CG4" s="17"/>
-      <c r="CH4" s="17"/>
-      <c r="CI4" s="17"/>
-      <c r="CJ4" s="18"/>
+      <c r="BW4" s="16"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="17"/>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="5" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="26" t="s">
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="22"/>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" s="22"/>
-      <c r="BB5" s="22"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="22"/>
-      <c r="BE5" s="22"/>
-      <c r="BF5" s="22"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="22"/>
-      <c r="BI5" s="22"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="22"/>
-      <c r="BL5" s="22"/>
-      <c r="BM5" s="22"/>
-      <c r="BN5" s="22"/>
-      <c r="BO5" s="22"/>
-      <c r="BP5" s="22"/>
-      <c r="BQ5" s="22"/>
-      <c r="BR5" s="22"/>
-      <c r="BS5" s="22"/>
-      <c r="BT5" s="22"/>
-      <c r="BU5" s="22"/>
-      <c r="BV5" s="26" t="s">
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BW5" s="22"/>
-      <c r="BX5" s="22"/>
-      <c r="BY5" s="22"/>
-      <c r="BZ5" s="22"/>
-      <c r="CA5" s="22"/>
-      <c r="CB5" s="27"/>
-      <c r="CC5" s="26" t="s">
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="CD5" s="22"/>
-      <c r="CE5" s="26" t="s">
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="CF5" s="22"/>
-      <c r="CG5" s="22"/>
-      <c r="CH5" s="22"/>
-      <c r="CI5" s="22"/>
-      <c r="CJ5" s="27"/>
+      <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="10"/>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="20"/>
-      <c r="BA6" s="20"/>
-      <c r="BB6" s="20"/>
-      <c r="BC6" s="20"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="20"/>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="20"/>
-      <c r="BH6" s="20"/>
-      <c r="BI6" s="20"/>
-      <c r="BJ6" s="20"/>
-      <c r="BK6" s="20"/>
-      <c r="BL6" s="20"/>
-      <c r="BM6" s="20"/>
-      <c r="BN6" s="20"/>
-      <c r="BO6" s="20"/>
-      <c r="BP6" s="20"/>
-      <c r="BQ6" s="20"/>
-      <c r="BR6" s="20"/>
-      <c r="BS6" s="20"/>
-      <c r="BT6" s="20"/>
-      <c r="BU6" s="20"/>
-      <c r="BV6" s="20"/>
-      <c r="BW6" s="20"/>
-      <c r="BX6" s="20"/>
-      <c r="BY6" s="20"/>
-      <c r="BZ6" s="20"/>
-      <c r="CA6" s="20"/>
-      <c r="CB6" s="20"/>
-      <c r="CC6" s="20"/>
-      <c r="CD6" s="20"/>
-      <c r="CE6" s="20"/>
-      <c r="CF6" s="20"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="CI6" s="20"/>
-      <c r="CJ6" s="21"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CF6" s="12"/>
+      <c r="CG6" s="13"/>
+      <c r="CH6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="CI6" s="12"/>
+      <c r="CJ6" s="13"/>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="39"/>
-      <c r="AB7" s="11" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="12"/>
-      <c r="BI7" s="13"/>
-      <c r="BJ7" s="16" t="s">
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BK7" s="17"/>
-      <c r="BL7" s="17"/>
-      <c r="BM7" s="17"/>
-      <c r="BN7" s="17"/>
-      <c r="BO7" s="17"/>
-      <c r="BP7" s="17"/>
-      <c r="BQ7" s="17"/>
-      <c r="BR7" s="17"/>
-      <c r="BS7" s="17"/>
-      <c r="BT7" s="17"/>
-      <c r="BU7" s="18"/>
-      <c r="BV7" s="11" t="s">
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="16"/>
+      <c r="BT7" s="16"/>
+      <c r="BU7" s="17"/>
+      <c r="BV7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BW7" s="12"/>
-      <c r="BX7" s="12"/>
-      <c r="BY7" s="12"/>
-      <c r="BZ7" s="12"/>
-      <c r="CA7" s="12"/>
-      <c r="CB7" s="12"/>
-      <c r="CC7" s="12"/>
-      <c r="CD7" s="12"/>
-      <c r="CE7" s="12"/>
-      <c r="CF7" s="12"/>
-      <c r="CG7" s="12"/>
-      <c r="CH7" s="12"/>
-      <c r="CI7" s="12"/>
-      <c r="CJ7" s="13"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="6"/>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="7"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="16" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22"/>
-      <c r="AS8" s="22"/>
-      <c r="AT8" s="22"/>
-      <c r="AU8" s="22"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-      <c r="AX8" s="22"/>
-      <c r="AY8" s="22"/>
-      <c r="AZ8" s="22"/>
-      <c r="BA8" s="22"/>
-      <c r="BB8" s="22"/>
-      <c r="BC8" s="22"/>
-      <c r="BD8" s="22"/>
-      <c r="BE8" s="22"/>
-      <c r="BF8" s="22"/>
-      <c r="BG8" s="22"/>
-      <c r="BH8" s="22"/>
-      <c r="BI8" s="22"/>
-      <c r="BJ8" s="22"/>
-      <c r="BK8" s="22"/>
-      <c r="BL8" s="22"/>
-      <c r="BM8" s="22"/>
-      <c r="BN8" s="22"/>
-      <c r="BO8" s="22"/>
-      <c r="BP8" s="22"/>
-      <c r="BQ8" s="22"/>
-      <c r="BR8" s="22"/>
-      <c r="BS8" s="22"/>
-      <c r="BT8" s="22"/>
-      <c r="BU8" s="27"/>
-      <c r="BV8" s="16" t="s">
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="10"/>
+      <c r="BV8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="BW8" s="17"/>
-      <c r="BX8" s="17"/>
-      <c r="BY8" s="17"/>
-      <c r="BZ8" s="17"/>
-      <c r="CA8" s="17"/>
-      <c r="CB8" s="17"/>
-      <c r="CC8" s="17"/>
-      <c r="CD8" s="17"/>
-      <c r="CE8" s="17"/>
-      <c r="CF8" s="17"/>
-      <c r="CG8" s="17"/>
-      <c r="CH8" s="17"/>
-      <c r="CI8" s="17"/>
-      <c r="CJ8" s="18"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="16"/>
+      <c r="CE8" s="16"/>
+      <c r="CF8" s="16"/>
+      <c r="CG8" s="16"/>
+      <c r="CH8" s="16"/>
+      <c r="CI8" s="16"/>
+      <c r="CJ8" s="17"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="AF9" s="42" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="14" t="s">
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="BF9" s="15"/>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
-      <c r="BM9" s="17"/>
-      <c r="BN9" s="17"/>
-      <c r="BO9" s="17"/>
-      <c r="BP9" s="17"/>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="17"/>
-      <c r="BS9" s="17"/>
-      <c r="BT9" s="17"/>
-      <c r="BU9" s="18"/>
-      <c r="BV9" s="26" t="s">
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="17"/>
+      <c r="BV9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22"/>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22"/>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22"/>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="27"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="9"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="9"/>
+      <c r="CG9" s="9"/>
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="10"/>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="41" t="s">
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="23"/>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="23"/>
-      <c r="AU10" s="23"/>
-      <c r="AV10" s="23"/>
-      <c r="AW10" s="23"/>
-      <c r="AX10" s="23"/>
-      <c r="AY10" s="23"/>
-      <c r="AZ10" s="23"/>
-      <c r="BA10" s="23"/>
-      <c r="BB10" s="23"/>
-      <c r="BC10" s="23"/>
-      <c r="BD10" s="23"/>
-      <c r="BE10" s="22"/>
-      <c r="BF10" s="22"/>
-      <c r="BG10" s="22"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="22"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="22"/>
-      <c r="BL10" s="22"/>
-      <c r="BM10" s="22"/>
-      <c r="BN10" s="22"/>
-      <c r="BO10" s="22"/>
-      <c r="BP10" s="22"/>
-      <c r="BQ10" s="22"/>
-      <c r="BR10" s="22"/>
-      <c r="BS10" s="22"/>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="27"/>
-      <c r="BV10" s="28" t="s">
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
+      <c r="AX10" s="30"/>
+      <c r="AY10" s="30"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30"/>
+      <c r="BD10" s="30"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="9"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="10"/>
+      <c r="BV10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="BW10" s="24"/>
-      <c r="BX10" s="24"/>
-      <c r="BY10" s="24"/>
-      <c r="BZ10" s="24"/>
-      <c r="CA10" s="24"/>
-      <c r="CB10" s="24"/>
-      <c r="CC10" s="24"/>
-      <c r="CD10" s="24"/>
-      <c r="CE10" s="24"/>
-      <c r="CF10" s="24"/>
-      <c r="CG10" s="20"/>
-      <c r="CH10" s="20"/>
-      <c r="CI10" s="20"/>
-      <c r="CJ10" s="21"/>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="33"/>
+      <c r="BY10" s="33"/>
+      <c r="BZ10" s="33"/>
+      <c r="CA10" s="33"/>
+      <c r="CB10" s="33"/>
+      <c r="CC10" s="33"/>
+      <c r="CD10" s="33"/>
+      <c r="CE10" s="33"/>
+      <c r="CF10" s="33"/>
+      <c r="CG10" s="12"/>
+      <c r="CH10" s="12"/>
+      <c r="CI10" s="12"/>
+      <c r="CJ10" s="13"/>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
       <c r="Z11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="24"/>
+      <c r="BC11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="13"/>
-      <c r="AK11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="8" t="s">
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="12"/>
+      <c r="BN11" s="12"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-      <c r="BF11" s="9"/>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="9"/>
-      <c r="BJ11" s="9"/>
-      <c r="BK11" s="9"/>
-      <c r="BL11" s="9"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="9"/>
-      <c r="BO11" s="9"/>
-      <c r="BP11" s="9"/>
-      <c r="BQ11" s="9"/>
-      <c r="BR11" s="9"/>
-      <c r="BS11" s="9"/>
-      <c r="BT11" s="9"/>
-      <c r="BU11" s="9"/>
-      <c r="BV11" s="20"/>
-      <c r="BW11" s="20"/>
-      <c r="BX11" s="20"/>
-      <c r="BY11" s="20"/>
-      <c r="BZ11" s="20"/>
-      <c r="CA11" s="20"/>
-      <c r="CB11" s="20"/>
-      <c r="CC11" s="20"/>
-      <c r="CD11" s="20"/>
-      <c r="CE11" s="20"/>
-      <c r="CF11" s="21"/>
-      <c r="CG11" s="19" t="s">
+      <c r="BQ11" s="12"/>
+      <c r="BR11" s="12"/>
+      <c r="BS11" s="12"/>
+      <c r="BT11" s="12"/>
+      <c r="BU11" s="12"/>
+      <c r="BV11" s="12"/>
+      <c r="BW11" s="12"/>
+      <c r="BX11" s="12"/>
+      <c r="BY11" s="12"/>
+      <c r="BZ11" s="12"/>
+      <c r="CA11" s="12"/>
+      <c r="CB11" s="12"/>
+      <c r="CC11" s="12"/>
+      <c r="CD11" s="12"/>
+      <c r="CE11" s="12"/>
+      <c r="CF11" s="13"/>
+      <c r="CG11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="CH11" s="20"/>
-      <c r="CI11" s="20"/>
-      <c r="CJ11" s="21"/>
+      <c r="CH11" s="12"/>
+      <c r="CI11" s="12"/>
+      <c r="CJ11" s="13"/>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="BC12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD12" s="13"/>
-      <c r="CA12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="CB12" s="12"/>
-      <c r="CC12" s="12"/>
-      <c r="CD12" s="12"/>
-      <c r="CE12" s="12"/>
-      <c r="CF12" s="12"/>
-      <c r="CG12" s="13"/>
+      <c r="B12" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="36"/>
+      <c r="BJ12" s="36"/>
+      <c r="BK12" s="36"/>
+      <c r="BL12" s="36"/>
+      <c r="BM12" s="36"/>
+      <c r="BN12" s="36"/>
+      <c r="BO12" s="36"/>
+      <c r="BP12" s="36"/>
+      <c r="BQ12" s="36"/>
+      <c r="BR12" s="36"/>
+      <c r="BS12" s="36"/>
+      <c r="BT12" s="36"/>
+      <c r="BU12" s="36"/>
+      <c r="BV12" s="36"/>
+      <c r="BW12" s="36"/>
+      <c r="BX12" s="36"/>
+      <c r="BY12" s="36"/>
+      <c r="BZ12" s="37"/>
+      <c r="CA12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB12" s="6"/>
+      <c r="CC12" s="6"/>
+      <c r="CD12" s="6"/>
+      <c r="CE12" s="6"/>
+      <c r="CF12" s="6"/>
+      <c r="CG12" s="7"/>
+      <c r="CH12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="CI12" s="37"/>
       <c r="CJ12" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="CK12" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="20" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM25" s="1" t="s">
+    <row r="18" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG18" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM27" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="CA12:CG12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="BO1:BZ1"/>
-    <mergeCell ref="CA1:CL1"/>
-    <mergeCell ref="S8:AC8"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="AW6:CG6"/>
-    <mergeCell ref="AS4:BU4"/>
-    <mergeCell ref="B4:AR4"/>
-    <mergeCell ref="AD8:BU8"/>
-    <mergeCell ref="AM5:BU5"/>
-    <mergeCell ref="B10:AN10"/>
+  <mergeCells count="63">
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="BP11:CF11"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B11:Y11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="N12:BB12"/>
+    <mergeCell ref="BE12:BZ12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="N6:AV6"/>
+    <mergeCell ref="G9:S9"/>
+    <mergeCell ref="BC11:BI11"/>
+    <mergeCell ref="BJ11:BO11"/>
+    <mergeCell ref="BJ7:BU7"/>
+    <mergeCell ref="B10:AF10"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AG10:AL10"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="AB7:BI7"/>
+    <mergeCell ref="AF9:BD9"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="BJ3:CJ3"/>
     <mergeCell ref="AK11:BB11"/>
@@ -2214,29 +2303,36 @@
     <mergeCell ref="BC1:BN1"/>
     <mergeCell ref="CH6:CJ6"/>
     <mergeCell ref="AA3:AQ3"/>
-    <mergeCell ref="B7:O7"/>
     <mergeCell ref="AO10:BU10"/>
     <mergeCell ref="B3:Z3"/>
     <mergeCell ref="BV4:CJ4"/>
-    <mergeCell ref="CG11:CJ11"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="N5:AL5"/>
+    <mergeCell ref="BO1:BZ1"/>
+    <mergeCell ref="CA1:CL1"/>
+    <mergeCell ref="S8:AC8"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="AW6:CG6"/>
+    <mergeCell ref="AS4:BU4"/>
+    <mergeCell ref="B4:AR4"/>
+    <mergeCell ref="AD8:BU8"/>
+    <mergeCell ref="AM5:BU5"/>
     <mergeCell ref="BV8:CJ8"/>
-    <mergeCell ref="BE9:BU9"/>
-    <mergeCell ref="BC11:CF11"/>
-    <mergeCell ref="N5:AL5"/>
-    <mergeCell ref="B6:AV6"/>
-    <mergeCell ref="BV5:CB5"/>
     <mergeCell ref="CC5:CD5"/>
     <mergeCell ref="CE5:CJ5"/>
-    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="BV7:CJ7"/>
+    <mergeCell ref="AE11:AJ11"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="CG11:CJ11"/>
+    <mergeCell ref="CA12:CG12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="BE9:BU9"/>
     <mergeCell ref="BV9:CJ9"/>
     <mergeCell ref="BV10:CJ10"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="AB7:BI7"/>
-    <mergeCell ref="AF9:BD9"/>
-    <mergeCell ref="BV7:CJ7"/>
-    <mergeCell ref="BJ7:BU7"/>
+    <mergeCell ref="CH12:CI12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2244,15 +2340,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008C2F96839F5560438131AC8CB1412C6D" ma:contentTypeVersion="10" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="b6fce52e18d9f7eaf431d38716894e69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7e1a49af-3604-4a98-871d-4d56330ddf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b14e690d0612e1b648082dfb9948061d" ns3:_="">
     <xsd:import namespace="7e1a49af-3604-4a98-871d-4d56330ddf59"/>
@@ -2434,6 +2521,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2443,14 +2539,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFB103B-A915-4B79-BEEC-EFCFC902E57D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCD64916-D91C-460E-AAC6-F0B3F2206629}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2464,6 +2552,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFB103B-A915-4B79-BEEC-EFCFC902E57D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
